--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52522F02-7D3C-4C34-BD59-2866DFE7FA1A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC478102-C482-4ECF-AD08-1D1D6462C78A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="127">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -1170,10 +1170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1261,52 +1257,6 @@
   <si>
     <t>「エラーが発生したためアカウント一覧画面が閲覧できません。」の表示</t>
     <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「エラーが発生したためアカウントが登録</t>
-    <rPh sb="5" eb="7">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>できませんでした。」の誤表記</t>
-    <rPh sb="11" eb="12">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録時にエラーが発生するとその</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>間のID番号は表示されない。</t>
-    <rPh sb="0" eb="1">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2348,7 +2298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I37" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I36" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -2365,7 +2315,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A38:I42" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A37:I41" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -2732,10 +2682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2746,7 +2696,7 @@
     <col min="4" max="4" width="116.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="39.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2759,7 +2709,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2786,12 +2736,12 @@
         <v>27</v>
       </c>
       <c r="C4" s="3">
-        <v>45999</v>
+        <v>46001</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2832,16 +2782,16 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>73</v>
@@ -2854,7 +2804,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2870,16 +2820,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G10" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>73</v>
@@ -2892,7 +2842,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2905,7 +2855,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2921,16 +2871,16 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G13" s="4">
-        <v>45811</v>
+        <v>46002</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>73</v>
@@ -2943,7 +2893,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2951,117 +2901,117 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="E15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="G17" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="G19" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3070,7 +3020,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -3078,338 +3028,317 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2">
-        <v>7</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2">
+        <v>11</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="7">
+        <v>13</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G25" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2">
-        <v>11</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>12</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
-        <v>13</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45811</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>89</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7" t="s">
-        <v>90</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="4">
+        <v>46002</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/アカウント一覧_結合テスト.xlsx
+++ b/アカウント一覧_結合テスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC478102-C482-4ECF-AD08-1D1D6462C78A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{0E02FCD3-8EAC-4D10-9ADF-4E91556B64B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2BEC314-894B-4610-A809-F69F08447637}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="3540" yWindow="3730" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2684,8 +2684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3269,10 +3269,10 @@
         <v>87</v>
       </c>
       <c r="G34" s="4">
-        <v>46002</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>74</v>
+        <v>46007</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="I34" s="7"/>
     </row>
